--- a/tests/artifact/data/Mobile-Godown.data.xlsx
+++ b/tests/artifact/data/Mobile-Godown.data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <r>
       <rPr>
@@ -49,30 +49,6 @@
     </r>
   </si>
   <si>
-    <t>login.screen</t>
-  </si>
-  <si>
-    <t>//img[@alt='Banner']</t>
-  </si>
-  <si>
-    <t>login.screenheading</t>
-  </si>
-  <si>
-    <t>//*[@class='bottom_section__title']</t>
-  </si>
-  <si>
-    <t>login.logo</t>
-  </si>
-  <si>
-    <t>//*[@class='login__top_section']//*[name()='svg']</t>
-  </si>
-  <si>
-    <t>login.heading</t>
-  </si>
-  <si>
-    <t>//*[text() = 'Welcome to AccionConnect']</t>
-  </si>
-  <si>
     <t>login.clickDefault</t>
   </si>
   <si>
@@ -136,79 +112,19 @@
     <t>org.Inventory</t>
   </si>
   <si>
-    <t>//*[text()='Inventory']</t>
-  </si>
-  <si>
-    <t>org.Reports</t>
-  </si>
-  <si>
-    <t>//*[text()='Reports']</t>
-  </si>
-  <si>
-    <t>org.balancesheet</t>
-  </si>
-  <si>
-    <t>(//*[text()='Balance Sheet'])[1]</t>
-  </si>
-  <si>
-    <t>org.transactions</t>
-  </si>
-  <si>
-    <t>//*[text()='Transactions']</t>
-  </si>
-  <si>
-    <t>org.Invoice</t>
-  </si>
-  <si>
-    <t>//*[text()='Invoice']</t>
-  </si>
-  <si>
-    <t>invoice.Additem</t>
-  </si>
-  <si>
-    <t>(//*[@id='add-item'])[4]</t>
+    <t>//h6[span='Inventory']</t>
   </si>
   <si>
     <t>click.Godowns</t>
   </si>
   <si>
-    <t>//*[text()='Godowns']</t>
-  </si>
-  <si>
-    <t>saveChanges.Product</t>
-  </si>
-  <si>
-    <t>//span[normalize-space()='Save Changes']</t>
-  </si>
-  <si>
-    <t>cancelpopup.button.supplier</t>
-  </si>
-  <si>
-    <t>//button[normalize-space()='Cancel']</t>
-  </si>
-  <si>
-    <t>okpopup.button.Product</t>
-  </si>
-  <si>
-    <t>//button[normalize-space()='OK']</t>
-  </si>
-  <si>
-    <t>toast.message</t>
-  </si>
-  <si>
-    <t>//div[@class='toast-body']</t>
+    <t>//a[@href="#/godowns"]</t>
   </si>
   <si>
     <t>button.addgodown</t>
   </si>
   <si>
-    <t>//body/div[@id='app']/main[1]/section[1]/div[1]/div[1]/button[1]</t>
-  </si>
-  <si>
-    <t>button.add.costcenter</t>
-  </si>
-  <si>
-    <t>//button[@type='submit']</t>
+    <t>//button[@class="btn btn-warning btn-sm"][span='Add Godown']</t>
   </si>
   <si>
     <t>label.creategodown</t>
@@ -268,18 +184,6 @@
     <t>//body/div[@id='app']/main[1]/div[1]/div[1]/div[2]/form[1]/div[2]/button[3]</t>
   </si>
   <si>
-    <t>confirmation.ok</t>
-  </si>
-  <si>
-    <t>//button[@type='button'][text()='OK']</t>
-  </si>
-  <si>
-    <t>confirmation.cancel</t>
-  </si>
-  <si>
-    <t>//button[@type='button'][text()='Cancel']</t>
-  </si>
-  <si>
     <t>popup.confirmation.alert1</t>
   </si>
   <si>
@@ -301,13 +205,13 @@
     <t>input.godowname</t>
   </si>
   <si>
-    <t>//input[@id='go-input-1']</t>
+    <t>//label[span='Name']/following-sibling::div/input[@placeholder="Godown Name"]</t>
   </si>
   <si>
     <t>input.godownconctperson</t>
   </si>
   <si>
-    <t>//input[@id='go-input-4']</t>
+    <t>//label[span='Contact Person']/following-sibling::div/input[@placeholder="Contact Person"]</t>
   </si>
   <si>
     <t>input.state</t>
@@ -325,19 +229,13 @@
     <t>input.contactnumber</t>
   </si>
   <si>
-    <t>//input[@id='go-input-5']</t>
+    <t>//label[span='Contact Number']/following-sibling::div/input[@type="number"]</t>
   </si>
   <si>
     <t>input.address</t>
   </si>
   <si>
-    <t>//textarea[@id='go-input-3']</t>
-  </si>
-  <si>
-    <t>alert.title</t>
-  </si>
-  <si>
-    <t>(//div)[59]</t>
+    <t>//legend[span='Address']/following-sibling::div/textarea[@id='go-input-3']</t>
   </si>
   <si>
     <t>alert.button.ok</t>
@@ -386,12 +284,6 @@
   </si>
   <si>
     <t>//button[@title='Download Godown List']</t>
-  </si>
-  <si>
-    <t>new.godown.added</t>
-  </si>
-  <si>
-    <t>//tbody/tr[1]/td[1]/div[1]</t>
   </si>
   <si>
     <t>Table.Rows</t>
@@ -1196,7 +1088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1221,10 +1113,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1644,10 +1532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A81" sqref="$A81:$XFD81"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="2"/>
@@ -1667,15 +1555,15 @@
       </c>
     </row>
     <row r="2" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1683,7 +1571,7 @@
       </c>
     </row>
     <row r="4" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1691,7 +1579,7 @@
       </c>
     </row>
     <row r="5" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1699,15 +1587,15 @@
       </c>
     </row>
     <row r="6" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1715,7 +1603,7 @@
       </c>
     </row>
     <row r="8" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1723,7 +1611,7 @@
       </c>
     </row>
     <row r="9" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1731,7 +1619,7 @@
       </c>
     </row>
     <row r="10" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1739,7 +1627,7 @@
       </c>
     </row>
     <row r="11" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1747,7 +1635,7 @@
       </c>
     </row>
     <row r="12" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1755,15 +1643,15 @@
       </c>
     </row>
     <row r="13" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1771,218 +1659,218 @@
       </c>
     </row>
     <row r="15" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A16" s="7" t="s">
+    <row r="16" ht="23.1" customHeight="1" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A17" s="7" t="s">
-        <v>31</v>
+      <c r="A17" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
+      <c r="A18" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A19" s="7" t="s">
-        <v>35</v>
+      <c r="A19" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A20" s="7" t="s">
-        <v>37</v>
+      <c r="A20" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A21" s="7" t="s">
-        <v>39</v>
+      <c r="A21" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A22" s="7" t="s">
-        <v>41</v>
+      <c r="A22" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="23" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="24" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="25" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>49</v>
+      <c r="A26" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="27" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
+      <c r="A28" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A29" s="7" t="s">
-        <v>55</v>
+      <c r="A29" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" ht="23.1" customHeight="1" spans="1:3">
-      <c r="A30" s="7" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="30" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1990,39 +1878,39 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" ht="23.1" customHeight="1" spans="1:2">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2030,7 +1918,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -2038,7 +1926,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -2046,7 +1934,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2054,7 +1942,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2062,7 +1950,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2070,7 +1958,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2078,7 +1966,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -2086,7 +1974,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2094,7 +1982,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2102,7 +1990,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2110,15 +1998,15 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:2">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2126,7 +2014,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2134,7 +2022,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2142,553 +2030,273 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2" t="s">
+    <row r="62" s="1" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A62" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2" t="s">
+    <row r="63" s="1" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A63" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A80" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A81" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="12" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
+  <conditionalFormatting sqref="A10">
+    <cfRule type="beginsWith" dxfId="3" priority="71" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A10,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="73" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="74" stopIfTrue="1">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="4" priority="75" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="76">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:E10">
+    <cfRule type="expression" dxfId="4" priority="77" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="78">
+      <formula>LEN(TRIM(C10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="beginsWith" dxfId="3" priority="57" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A11,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A11,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A11,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="60" stopIfTrue="1">
+      <formula>LEN(TRIM(A11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:E11">
+    <cfRule type="expression" dxfId="4" priority="61" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="62">
+      <formula>LEN(TRIM(B11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="beginsWith" dxfId="3" priority="117" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A12,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A12,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A12,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="120" stopIfTrue="1">
+      <formula>LEN(TRIM(A12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="4" priority="121" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="122">
+      <formula>LEN(TRIM(B12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="beginsWith" dxfId="3" priority="5" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A26,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A26,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A26,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:E26">
+    <cfRule type="expression" dxfId="4" priority="29" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="30">
+      <formula>LEN(TRIM(B26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="4" priority="83" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="84">
+      <formula>LEN(TRIM(B40))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:E61">
+    <cfRule type="expression" dxfId="4" priority="35" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="36">
+      <formula>LEN(TRIM(B61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A9">
     <cfRule type="beginsWith" dxfId="3" priority="63" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A14,LEN("//"))="//"</formula>
+      <formula>LEFT(A8,LEN("//"))="//"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A8,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A8,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="0" priority="66" stopIfTrue="1">
-      <formula>LEN(TRIM(A14))&gt;0</formula>
+      <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="A24:A25">
+    <cfRule type="beginsWith" dxfId="3" priority="51" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A24,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="54" stopIfTrue="1">
+      <formula>LEN(TRIM(A24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:A32">
+    <cfRule type="beginsWith" dxfId="3" priority="85" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A29,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="86" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A29,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="87" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A29,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="88" stopIfTrue="1">
+      <formula>LEN(TRIM(A29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:A63">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A33))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A33,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9">
     <cfRule type="expression" dxfId="4" priority="67" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="68">
-      <formula>LEN(TRIM(B14))&gt;0</formula>
+      <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:E14">
+  <conditionalFormatting sqref="B24:B25">
+    <cfRule type="expression" dxfId="4" priority="49" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="50">
+      <formula>LEN(TRIM(B24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="expression" dxfId="4" priority="93" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="94">
+      <formula>LEN(TRIM(B29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A7 A13:A23 A27:A28 A90:A1048576 A64:A67">
+    <cfRule type="beginsWith" dxfId="3" priority="135" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A2,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="136" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="137" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="138" stopIfTrue="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E7 C12:E12 B13:E23 B27:B28 B47 B64:E64 B90:E1048576 B48:E60 B39 C27:E40">
+    <cfRule type="expression" dxfId="4" priority="139" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="142">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:E9">
     <cfRule type="expression" dxfId="4" priority="69" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="70">
-      <formula>LEN(TRIM(C14))&gt;0</formula>
+      <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="beginsWith" dxfId="3" priority="49" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A15,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="50" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="51" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="52" stopIfTrue="1">
-      <formula>LEN(TRIM(A15))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:E15">
-    <cfRule type="expression" dxfId="4" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="C24:E25">
+    <cfRule type="expression" dxfId="4" priority="55" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="54">
-      <formula>LEN(TRIM(B15))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="beginsWith" dxfId="3" priority="103" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A19,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="104" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A19,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="105" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A19,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="106" stopIfTrue="1">
-      <formula>LEN(TRIM(A19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="4" priority="107" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="108">
-      <formula>LEN(TRIM(B19))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="beginsWith" dxfId="3" priority="29" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A39,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A39,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="31" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A39,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="32" stopIfTrue="1">
-      <formula>LEN(TRIM(A39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:E39">
-    <cfRule type="expression" dxfId="4" priority="33" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="34">
-      <formula>LEN(TRIM(B39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A42,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A42,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A42,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A42))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42:E42">
-    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="22">
-      <formula>LEN(TRIM(B42))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="beginsWith" dxfId="3" priority="71" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A57,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A57,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="73" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A57,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="74" stopIfTrue="1">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="4" priority="75" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="76">
-      <formula>LEN(TRIM(B57))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="beginsWith" dxfId="3" priority="23" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A79,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A79,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="25" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A79,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="26" stopIfTrue="1">
-      <formula>LEN(TRIM(A79))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79:E79">
-    <cfRule type="expression" dxfId="4" priority="27" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="28">
-      <formula>LEN(TRIM(B79))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A80))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A80,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A80,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="5" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A80,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A81))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A81,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A81,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A81,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="beginsWith" dxfId="3" priority="121" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A2,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="122" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="123" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="124" stopIfTrue="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A13">
-    <cfRule type="beginsWith" dxfId="3" priority="55" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A12,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="56" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A12,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="57" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A12,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="58" stopIfTrue="1">
-      <formula>LEN(TRIM(A12))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A18">
-    <cfRule type="beginsWith" dxfId="3" priority="109" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A16,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="110" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A16,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="111" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A16,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="112" stopIfTrue="1">
-      <formula>LEN(TRIM(A16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:A48">
-    <cfRule type="beginsWith" dxfId="3" priority="77" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A45,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A45,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="79" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A45,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="80" stopIfTrue="1">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:A63">
-    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A62,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A62,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A62,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(A62))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B4">
-    <cfRule type="expression" dxfId="4" priority="125" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="126">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="4" priority="59" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="60">
-      <formula>LEN(TRIM(B12))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B18">
-    <cfRule type="expression" dxfId="4" priority="113" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="114">
-      <formula>LEN(TRIM(B16))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B41">
-    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="42">
-      <formula>LEN(TRIM(B40))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="expression" dxfId="4" priority="85" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="86">
-      <formula>LEN(TRIM(B45))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E4 B65 B82:E82 B108:E1048576 B66:E78 B56 B43:B44 C43:E58 B20:B37 C16:E37 B5:E11">
-    <cfRule type="expression" dxfId="4" priority="131" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="134">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A11 A82:A85 A108:A1048576 A68:A78 A49:A56 A43:A44 A20:A37">
-    <cfRule type="beginsWith" dxfId="3" priority="127" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A5,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="128" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A5,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="129" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A5,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="130" stopIfTrue="1">
-      <formula>LEN(TRIM(A5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:E13">
-    <cfRule type="expression" dxfId="4" priority="61" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="62">
-      <formula>LEN(TRIM(C12))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38 A40:A41">
-    <cfRule type="beginsWith" dxfId="3" priority="43" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A38,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="44" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A38,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="45" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A38,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="46" stopIfTrue="1">
-      <formula>LEN(TRIM(A38))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:E38 C40:E41">
-    <cfRule type="expression" dxfId="4" priority="47" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="48">
-      <formula>LEN(TRIM(B38))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A61 A64:A67">
-    <cfRule type="beginsWith" dxfId="3" priority="87" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A58,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="88" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A58,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A58,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="90" stopIfTrue="1">
-      <formula>LEN(TRIM(A58))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="56">
+      <formula>LEN(TRIM(C24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/artifact/data/Mobile-Godown.data.xlsx
+++ b/tests/artifact/data/Mobile-Godown.data.xlsx
@@ -1534,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="2"/>

--- a/tests/artifact/data/Mobile-Godown.data.xlsx
+++ b/tests/artifact/data/Mobile-Godown.data.xlsx
@@ -94,7 +94,7 @@
     <t>Org.Name</t>
   </si>
   <si>
-    <t>TestingProduct</t>
+    <t>FinalOrg</t>
   </si>
   <si>
     <t>org.open</t>
@@ -1534,8 +1534,8 @@
   <sheetPr/>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="2"/>

--- a/tests/artifact/data/Mobile-Godown.data.xlsx
+++ b/tests/artifact/data/Mobile-Godown.data.xlsx
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="2"/>
